--- a/Excels/Credentials.xlsx
+++ b/Excels/Credentials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>oldpassword</t>
   </si>
@@ -38,10 +38,22 @@
     <t>mngr285928</t>
   </si>
   <si>
-    <t>duy@704</t>
-  </si>
-  <si>
-    <t>duy@1913</t>
+    <t>duy@5522</t>
+  </si>
+  <si>
+    <t>duy@376</t>
+  </si>
+  <si>
+    <t>duy@6263</t>
+  </si>
+  <si>
+    <t>duy@2329</t>
+  </si>
+  <si>
+    <t>duy@3455</t>
+  </si>
+  <si>
+    <t>duy@1385</t>
   </si>
 </sst>
 </file>
@@ -49,10 +61,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,11 +413,14 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excels/Credentials.xlsx
+++ b/Excels/Credentials.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="6585" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>oldpassword</t>
   </si>
@@ -38,41 +38,17 @@
     <t>mngr285928</t>
   </si>
   <si>
-    <t>duy@5522</t>
-  </si>
-  <si>
-    <t>duy@376</t>
-  </si>
-  <si>
-    <t>duy@6263</t>
-  </si>
-  <si>
-    <t>duy@2329</t>
-  </si>
-  <si>
-    <t>duy@3455</t>
-  </si>
-  <si>
-    <t>duy@1385</t>
+    <t>duy@6601</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,20 +71,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,10 +98,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -163,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +171,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -292,21 +265,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -323,7 +296,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -375,26 +348,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,14 +386,14 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excels/Credentials.xlsx
+++ b/Excels/Credentials.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6585"/>
+    <workbookView windowHeight="6585" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>oldpassword</t>
   </si>
@@ -39,12 +39,19 @@
   </si>
   <si>
     <t>duy@6601</t>
+  </si>
+  <si>
+    <t>duy@853</t>
+  </si>
+  <si>
+    <t>duy@5555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,16 +79,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -98,10 +105,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -136,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -171,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -265,21 +272,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -296,7 +303,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -348,14 +355,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -364,10 +371,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -386,14 +393,14 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excels/Credentials.xlsx
+++ b/Excels/Credentials.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="6585" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>oldpassword</t>
   </si>
@@ -38,24 +38,25 @@
     <t>mngr285928</t>
   </si>
   <si>
-    <t>duy@6601</t>
-  </si>
-  <si>
-    <t>duy@853</t>
-  </si>
-  <si>
-    <t>duy@5555</t>
+    <t>duy@7116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,17 +79,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -105,10 +109,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -143,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -272,21 +276,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -303,7 +307,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -355,26 +359,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -392,15 +396,15 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>